--- a/excel_tables_dir/random_excel_data_export.xlsx
+++ b/excel_tables_dir/random_excel_data_export.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,214 +485,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>А40-892805/2024</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>17.04.2024</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>civil</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Лтд</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>НПО «Васильева-Андреев»</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3998681348</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>АО «Алексеева»</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>4711125419</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>+79901104457</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>sergeevelizar@hotmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>А40-250887/2024</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>24.04.2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>civil</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Групп</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>АО «Васильев Сысоев»</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7053395629</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>РАО «Калинин»</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>5305514890</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>+79900658061</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>aksenovaglafira@zao.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>А40-620315/2024</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>08.03.2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>civil</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Инк</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>АО «Щербакова-Лыткин»</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9812919398</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Казаков Инкорпорэйтед</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>6000680301</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>+79900699626</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>emmanuil1998@ip.ru</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>А40-214918/2024</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>18.05.2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>civil</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Лимитед</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Марков Лимитед</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9496984831</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>ОАО «Александров, Селезнев и Фокин»</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1617989318</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>+79902580093</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>marfa_39@hotmail.com</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_tables_dir/random_excel_data_export.xlsx
+++ b/excel_tables_dir/random_excel_data_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,214 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>А40-892805/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>17.04.2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Лтд</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>НПО «Васильева-Андреев»</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3998681348</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>АО «Алексеева»</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>4711125419</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>+79901104457</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>sergeevelizar@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>А40-240430/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>22.10.2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Инкорпорэйтед</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>НПО «Мясников, Родионов и Сазонова»</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5644216222</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Сибирская горно-металлургическая компания</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>3424571010</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>+79900728264</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>loginovevlampi@rogov.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>А40-620315/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>08.03.2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Инк</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>АО «Щербакова-Лыткин»</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9812919398</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Казаков Инкорпорэйтед</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>6000680301</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>+79900699626</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>emmanuil1998@ip.ru</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>А40-214918/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>18.05.2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Лимитед</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Марков Лимитед</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9496984831</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ОАО «Александров, Селезнев и Фокин»</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1617989318</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>+79902580093</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>marfa_39@hotmail.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_tables_dir/random_excel_data_export.xlsx
+++ b/excel_tables_dir/random_excel_data_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,12 +592,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>А40-620315/2024</t>
+          <t>А40-250887/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>08.03.2024</t>
+          <t>24.04.2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -607,89 +607,1181 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Инк</t>
+          <t>Групп</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>АО «Щербакова-Лыткин»</t>
+          <t>АО «Васильев Сысоев»</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9812919398</t>
+          <t>7053395629</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Казаков Инкорпорэйтед</t>
+          <t>РАО «Калинин»</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6000680301</t>
+          <t>5305514890</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>+79900699626</t>
+          <t>+79900658061</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>emmanuil1998@ip.ru</t>
+          <t>aksenovaglafira@zao.net</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>А40-620315/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>08.03.2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Инк</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>АО «Щербакова-Лыткин»</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9812919398</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Казаков Инкорпорэйтед</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>6000680301</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>+79900699626</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>emmanuil1998@ip.ru</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>А40-214918/2024</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>18.05.2024</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>civil</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Лимитед</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Марков Лимитед</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>9496984831</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>ОАО «Александров, Селезнев и Фокин»</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>1617989318</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>+79902580093</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>marfa_39@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>А40-663460/2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>05.10.2025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ИП</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>АО «Иванов»</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6771974863</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ООО «Никитин»</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>4622912836</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>+79257937137</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>info@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>А40-334177/2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>15.01.2025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Групп</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>АО «Петров»</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8436904227</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ООО «Козлов»</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>4170557204</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>+79165023939</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>support@yahoo.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>А40-877469/2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>06.03.2025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>АО</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>АО «Кузнецов»</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1879712610</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ООО «Фролов»</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>8254564396</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>+79096689988</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>support@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>А40-228908/2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>11.04.2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Инкорпорэйтед</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>АО «Иванов»</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8663551766</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ООО «Фролов»</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3114405000</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>+79197767971</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>contact@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>А40-754739/2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>11.01.2025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Групп</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>АО «Иванов»</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6076878492</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ООО «Никитин»</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3476517404</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>+79255500066</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>support@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>А40-751906/2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>21.10.2025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Инкорпорэйтед</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>АО «Сидоров»</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7768768987</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ООО «Никитин»</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>7625912065</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>+79296191687</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>support@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>А40-676100/2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>04.01.2025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Групп</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>АО «Иванов»</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1972434226</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ООО «Фролов»</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>6477295074</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>+79262711111</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>support@yahoo.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>А40-891244/2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>25.06.2025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>АО</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>АО «Сидоров»</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8511604196</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ООО «Фролов»</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>3469725497</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>+79361772272</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>contact@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>А40-117070/2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>08.12.2025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>АО</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>АО «Петров»</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6237439561</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ООО «Козлов»</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3859910545</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>+79251881888</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>support@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>А40-961449/2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>22.01.2025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Групп</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>АО «Сидоров»</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7766734010</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>ООО «Фролов»</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>4087021018</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>+79039605463</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>info@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>А40-417202/2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>23.12.2025</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Инкорпорэйтед</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>АО «Петров»</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1158728677</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>ООО «Козлов»</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2209490577</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>+79581007228</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>support@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>А40-895327/2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>11.10.2025</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Лтд</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>АО «Иванов»</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3722042598</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>ООО «Никитин»</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>9846627665</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>+79913326977</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>contact@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>А40-266572/2025</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>23.07.2025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>АО</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>АО «Сидоров»</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5402477273</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>ООО «Никитин»</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>3293363772</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>+79253933260</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>contact@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>А40-795287/2025</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>20.07.2025</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Лтд</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>АО «Сидоров»</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2341590189</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>ООО «Васильев»</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>7578126359</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>+79268505150</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>contact@yahoo.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>А40-657316/2025</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>05.11.2025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Лтд</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>АО «Петров»</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3508525169</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>ООО «Васильев»</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1779525141</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>+79296542244</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>contact@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>А40-754956/2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>19.04.2025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Лтд</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>АО «Иванов»</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2630854838</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>ООО «Никитин»</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>7240395678</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>+79296539933</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>support@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>А40-325458/2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>16.04.2025</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Инкорпорэйтед</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>АО «Сидоров»</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2930563098</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>ООО «Козлов»</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>6070496276</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>+79779375395</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>contact@yahoo.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>А40-997210/2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>28.02.2025</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Инкорпорэйтед</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>АО «Сидоров»</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6401555178</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>ООО «Фролов»</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>6649939054</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>+79251750750</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>info@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>А40-506203/2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>13.01.2025</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Групп</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>АО «Иванов»</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5255512045</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>ООО «Козлов»</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>8448407799</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>+79160223623</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>support@yahoo.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>А40-215991/2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>18.10.2025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>АО</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>АО «Кузнецов»</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6910804293</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>ООО «Васильев»</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2481888537</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>+79254889101</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>contact@gmail.com</t>
         </is>
       </c>
     </row>
